--- a/medicine/Psychotrope/Tarte_au_comté/Tarte_au_comté.xlsx
+++ b/medicine/Psychotrope/Tarte_au_comté/Tarte_au_comté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tarte_au_comt%C3%A9</t>
+          <t>Tarte_au_comté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La tarte au comté est une recette de cuisine traditionnelle de la cuisine franc-comtoise, à base de tarte au comté, œuf, lait et vin blanc du vignoble du Jura.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tarte_au_comt%C3%A9</t>
+          <t>Tarte_au_comté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette recette est typique de la cuisine franc-comtoise, à base de comté et de vin blanc (en général du savagnin) du vignoble du Jura[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette recette est typique de la cuisine franc-comtoise, à base de comté et de vin blanc (en général du savagnin) du vignoble du Jura.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tarte_au_comt%C3%A9</t>
+          <t>Tarte_au_comté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Recette</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mélanger des œufs, du lait, et du vin blanc du vignoble du Jura, saler poivrer. Étalez la préparation sur une pâte brisée de moule à tarte, avec du comté râpé, et faire cuire et dorer au four 45 min à 240°C. Servir tiède accompagnée de vin du Jura[2],[3] (vin jaune, ou Savagnin...).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mélanger des œufs, du lait, et du vin blanc du vignoble du Jura, saler poivrer. Étalez la préparation sur une pâte brisée de moule à tarte, avec du comté râpé, et faire cuire et dorer au four 45 min à 240°C. Servir tiède accompagnée de vin du Jura, (vin jaune, ou Savagnin...).
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tarte_au_comt%C3%A9</t>
+          <t>Tarte_au_comté</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Variantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tarte au comté peux également être préparée par exemple avec du Morbier[4], ou façon tartiflette de la cuisine savoyarde, avec des pommes de terre et des lardons[5], ou façon quiche lorraine de la cuisine lorraine, avec ajout de crème fraîche ou sauce béchamel, pomme de terre, et lardons[6],[7]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tarte au comté peux également être préparée par exemple avec du Morbier, ou façon tartiflette de la cuisine savoyarde, avec des pommes de terre et des lardons, ou façon quiche lorraine de la cuisine lorraine, avec ajout de crème fraîche ou sauce béchamel, pomme de terre, et lardons,. 
 </t>
         </is>
       </c>
